--- a/spliced/struggle/2023-04-06_17-41-50/gyroscope_selected.xlsx
+++ b/spliced/struggle/2023-04-06_17-41-50/gyroscope_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,6 +670,116 @@
         <v>0.5934556126594543</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>-0.4335615932941437</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.1406517177820205</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-0.8185594081878662</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>0.09498954564332961</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-0.7519751191139221</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-0.1093448773026466</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>0.1846340149641037</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-1.312596678733826</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.0687223374843597</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>0.6478226184844971</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-0.9091202020645142</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-0.1838704347610473</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-0.1064432710409164</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-0.09178250283002851</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.0652098655700683</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-0.042302418500185</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.3572034537792206</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.1937969923019409</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-0.2768746614456177</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.2338086664676666</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-0.1817324161529541</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>0.0734565481543541</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.1968513280153274</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.1055269688367843</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>-0.1507309973239898</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-0.0175623763352632</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.08170322328805921</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>-0.1734857261180877</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.0183259565383195</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.0250454749912023</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
